--- a/VersionRecords/Version 5.2.1/版本Bug和特性计划及评审表v5.2.1_架构组.xlsx
+++ b/VersionRecords/Version 5.2.1/版本Bug和特性计划及评审表v5.2.1_架构组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
   <si>
     <t>No</t>
   </si>
@@ -257,10 +257,6 @@
     <t>是</t>
   </si>
   <si>
-    <t>DV-475</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>能</t>
   </si>
   <si>
@@ -271,10 +267,6 @@
     <t>Fix Bugs</t>
   </si>
   <si>
-    <t>所有包（renter/renterpc/renter服务窗，partner/partnerpc/payapi/bs/mogo-tasktrack/mogoda-track）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>宋伟</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -283,6 +275,21 @@
   </si>
   <si>
     <t>测试需要预发布测试分页点，看下分页是否正常。</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hadoop上线</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>mogo-hadoop</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有包（renter/renterpc/renter服务窗，partner/partnerpc/payapi/bs/mogo-tasktrack/mogoda-tasktrack）</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1379,7 +1386,7 @@
   <dimension ref="A1:W170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1487,70 +1494,96 @@
         <v>69</v>
       </c>
       <c r="D2" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="F2" s="38" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>70</v>
       </c>
       <c r="H2" s="39">
-        <v>43100</v>
+        <v>42734</v>
       </c>
       <c r="I2" s="38" t="s">
         <v>70</v>
       </c>
       <c r="J2" s="39">
-        <v>43100</v>
+        <v>42734</v>
       </c>
       <c r="K2" s="38"/>
       <c r="L2" s="47" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O2" s="47"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="R2" s="77" t="s">
         <v>71</v>
       </c>
+      <c r="R2" s="77"/>
       <c r="S2" s="77"/>
       <c r="T2" s="44"/>
       <c r="U2" s="52"/>
       <c r="V2" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" s="54"/>
+    </row>
+    <row r="3" spans="1:23" s="31" customFormat="1" ht="16.5">
+      <c r="A3" s="36">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="W2" s="54"/>
-    </row>
-    <row r="3" spans="1:23" s="31" customFormat="1" ht="16.5">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
+      <c r="F3" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="39">
+        <v>42734</v>
+      </c>
       <c r="K3" s="38"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="L3" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>74</v>
+      </c>
       <c r="O3" s="47"/>
       <c r="P3" s="39"/>
-      <c r="Q3" s="47"/>
+      <c r="Q3" s="47" t="s">
+        <v>71</v>
+      </c>
       <c r="R3" s="77"/>
       <c r="S3" s="44"/>
       <c r="T3" s="44"/>
@@ -5446,7 +5479,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 U1:U1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576 H3:I3 G1:G1048576 I1:I2 I4:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -5465,9 +5498,6 @@
       <formula1>"能,否"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>

--- a/VersionRecords/Version 5.2.1/版本Bug和特性计划及评审表v5.2.1_架构组.xlsx
+++ b/VersionRecords/Version 5.2.1/版本Bug和特性计划及评审表v5.2.1_架构组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
   <si>
     <t>No</t>
   </si>
@@ -291,6 +291,9 @@
   <si>
     <t>所有包（renter/renterpc/renter服务窗，partner/partnerpc/payapi/bs/mogo-tasktrack/mogoda-tasktrack）</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-1841</t>
   </si>
 </sst>
 </file>
@@ -737,7 +740,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,6 +1001,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1385,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1584,7 +1590,9 @@
       <c r="Q3" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="R3" s="77"/>
+      <c r="R3" s="87" t="s">
+        <v>81</v>
+      </c>
       <c r="S3" s="44"/>
       <c r="T3" s="44"/>
       <c r="U3" s="52"/>
@@ -5498,6 +5506,9 @@
       <formula1>"能,否"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="R3" r:id="rId1" display="http://192.168.60.204/browse/DV-1841"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>

--- a/VersionRecords/Version 5.2.1/版本Bug和特性计划及评审表v5.2.1_架构组.xlsx
+++ b/VersionRecords/Version 5.2.1/版本Bug和特性计划及评审表v5.2.1_架构组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
   <si>
     <t>No</t>
   </si>
@@ -294,6 +294,13 @@
   </si>
   <si>
     <t>DV-1841</t>
+  </si>
+  <si>
+    <t>DV-1998</t>
+  </si>
+  <si>
+    <t>临时问题无</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -975,6 +982,9 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1001,9 +1011,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="12" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1392,7 +1399,7 @@
   <dimension ref="A1:W170"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1421,7 +1428,7 @@
     <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="30" customFormat="1" ht="27">
+    <row r="1" spans="1:23" s="30" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1535,8 +1542,12 @@
       <c r="Q2" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
+      <c r="R2" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="S2" s="77" t="s">
+        <v>83</v>
+      </c>
       <c r="T2" s="44"/>
       <c r="U2" s="52"/>
       <c r="V2" s="53" t="s">
@@ -1590,7 +1601,7 @@
       <c r="Q3" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="R3" s="87" t="s">
+      <c r="R3" s="78" t="s">
         <v>81</v>
       </c>
       <c r="S3" s="44"/>
@@ -5508,9 +5519,10 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="R3" r:id="rId1" display="http://192.168.60.204/browse/DV-1841"/>
+    <hyperlink ref="R2" r:id="rId2" display="http://192.168.60.204/browse/DV-1998"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5686,19 +5698,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -5736,8 +5748,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5749,8 +5761,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5762,8 +5774,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5775,8 +5787,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5788,8 +5800,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5801,8 +5813,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5814,8 +5826,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5827,8 +5839,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5889,36 +5901,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6203,36 +6215,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6517,36 +6529,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6833,36 +6845,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
